--- a/data/trans_camb/P36B02_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P36B02_R-Estudios-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>0.7675982745383392</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-5.512538561636471</v>
+        <v>-5.512538561636482</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.716164639617273</v>
+        <v>-2.699254736685084</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.416472530957788</v>
+        <v>-3.40338966908717</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-10.85123931185858</v>
+        <v>-10.54534893529526</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.9891220322055292</v>
+        <v>-1.115426076812199</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.1840806432890635</v>
+        <v>-0.1315245650197995</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-6.691554256377852</v>
+        <v>-6.811645590906029</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.012599381071318</v>
+        <v>-0.9913335320009332</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.76961593394197</v>
+        <v>-0.750732481653693</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-7.559099330134663</v>
+        <v>-7.397465652207153</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.496134658090928</v>
+        <v>2.311174212931577</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.137651490208659</v>
+        <v>2.223680981918494</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-3.481776877909129</v>
+        <v>-3.488027961286118</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.59104742159581</v>
+        <v>2.590194566768352</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.609820675190139</v>
+        <v>3.637260939778965</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-2.401405214514147</v>
+        <v>-2.757937560679511</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.046252453588763</v>
+        <v>1.888654480369581</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.267043245013009</v>
+        <v>2.294101150543232</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-3.742489068817968</v>
+        <v>-3.829674609931973</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.008251719368791759</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.05926006184371008</v>
+        <v>-0.05926006184371019</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.02928593236970605</v>
+        <v>-0.02907209195474693</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.03685691463242777</v>
+        <v>-0.0365297901803574</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1172278051695002</v>
+        <v>-0.1139757218361758</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.01048753585212834</v>
+        <v>-0.01172891695233504</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.001938720605799424</v>
+        <v>-0.001382868904639993</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.07115399298133485</v>
+        <v>-0.07185649415586703</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.01081843943634065</v>
+        <v>-0.01058581871552253</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.008264563964042414</v>
+        <v>-0.008052096273982276</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.08055715035639517</v>
+        <v>-0.07909527677829487</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.02761556975358311</v>
+        <v>0.02534866613616867</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.0235966876921925</v>
+        <v>0.02451949793836249</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.03684290884150854</v>
+        <v>-0.03850546146308764</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.02776574643286476</v>
+        <v>0.02776077826618727</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.0388497167211129</v>
+        <v>0.03901664468631091</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.02594097111411542</v>
+        <v>-0.0295723426400925</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02222742780571481</v>
+        <v>0.02061129721502835</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.02452056208925087</v>
+        <v>0.0247537777476562</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.04054047496681579</v>
+        <v>-0.04149555174599753</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-1.793328154447393</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-5.6510162285067</v>
+        <v>-5.651016228506689</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-0.09225279852391743</v>
@@ -869,7 +869,7 @@
         <v>-0.009209158773049175</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-5.018536340957791</v>
+        <v>-5.018536340957813</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.5128990101920694</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.4950653395649824</v>
+        <v>-0.6149121899307333</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.614565434820627</v>
+        <v>-3.847330752210417</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.723384227142333</v>
+        <v>-7.74676874321116</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.711412790593206</v>
+        <v>-1.815085169106974</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.514660590438751</v>
+        <v>-1.621241128661336</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-6.732034928284144</v>
+        <v>-6.684567846326239</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.7172571921147224</v>
+        <v>-0.674931751576805</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.177774812177181</v>
+        <v>-2.152850049451861</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-6.704211832992442</v>
+        <v>-6.763909103161544</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.783116079620292</v>
+        <v>2.850126411579621</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06367154782362468</v>
+        <v>0.0112495303168301</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-3.664732721679598</v>
+        <v>-3.477844708254226</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.514874547953281</v>
+        <v>1.621672143404085</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.734609193831392</v>
+        <v>1.673378917139423</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-3.308096645485458</v>
+        <v>-3.14799069506032</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.704941082008656</v>
+        <v>1.804247595099902</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4241786297246381</v>
+        <v>0.3449964678853798</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-3.983664809875306</v>
+        <v>-4.000802228054795</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.0192808905140145</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.06075665790700274</v>
+        <v>-0.06075665790700261</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.0009842697580884994</v>
@@ -974,7 +974,7 @@
         <v>-9.825497570567127e-05</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.05354410521207365</v>
+        <v>-0.05354410521207389</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.005493934613407253</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.005273818116314106</v>
+        <v>-0.006518844655813998</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.03867180105625889</v>
+        <v>-0.04130396415502154</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.08219263588849549</v>
+        <v>-0.08328851984283668</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.01809123985812325</v>
+        <v>-0.01922729228417421</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.01603428287326374</v>
+        <v>-0.01713924515508554</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.07153788579751033</v>
+        <v>-0.07082570242728152</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.007621337633987945</v>
+        <v>-0.007195504513604418</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.02315652410292548</v>
+        <v>-0.02292445138013386</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.07150839179717537</v>
+        <v>-0.07227037042472705</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.0305238348112137</v>
+        <v>0.03099847149096746</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.0007164613433451003</v>
+        <v>0.0001163228014166637</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.03971575162802752</v>
+        <v>-0.03803620051774381</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.01627088855511714</v>
+        <v>0.01745372747718195</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.01871568189298169</v>
+        <v>0.01796803506151952</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.03581768803286685</v>
+        <v>-0.033782255287082</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01842412296551944</v>
+        <v>0.01952224573649928</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.004556720137418174</v>
+        <v>0.003717865697884583</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.04312188952871911</v>
+        <v>-0.04322140700065064</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-0.310803726675124</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-6.173981192789146</v>
+        <v>-6.173981192789157</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-2.901527738269205</v>
@@ -1092,7 +1092,7 @@
         <v>-2.293430038372324</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-6.77423780940829</v>
+        <v>-6.774237809408312</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.871208545752419</v>
+        <v>-3.834229149337685</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.27586479122087</v>
+        <v>-3.307974720238682</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-9.429956350262898</v>
+        <v>-9.345368424401222</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.828281588001349</v>
+        <v>-5.537166758570038</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-7.430559398524514</v>
+        <v>-7.079616373420694</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-10.24598911128566</v>
+        <v>-9.954823171525168</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.713640031292662</v>
+        <v>-3.707587756121212</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-4.208641177476397</v>
+        <v>-4.268048367420086</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-8.777768291220582</v>
+        <v>-9.087559586780367</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.474690011751788</v>
+        <v>2.151275936270855</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.753434569843791</v>
+        <v>2.538826420994136</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-3.334769024596592</v>
+        <v>-2.920657774638803</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.5305331207606445</v>
+        <v>-0.2546237772205043</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-1.724328532150892</v>
+        <v>-1.814588493894543</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-5.083610975775455</v>
+        <v>-4.927340306040344</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2719867770114403</v>
+        <v>0.1456430745453834</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.2405937263575135</v>
+        <v>-0.4746099881026772</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-4.476160852460455</v>
+        <v>-4.86280597200885</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.003277227925860347</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.06510071097022213</v>
+        <v>-0.06510071097022224</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.02997286181583922</v>
@@ -1197,7 +1197,7 @@
         <v>-0.02395240136370333</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.07074960222430819</v>
+        <v>-0.07074960222430843</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.04089297046140068</v>
+        <v>-0.0396995882539291</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.03382855761214403</v>
+        <v>-0.03452135256950701</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.09851041407241048</v>
+        <v>-0.09786332565808854</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.05934061989727033</v>
+        <v>-0.05666767838934708</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.0761806338791436</v>
+        <v>-0.07241628798988804</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1057355859289195</v>
+        <v>-0.1026931762922559</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.03877579234401764</v>
+        <v>-0.03844447588473317</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.04363177380870995</v>
+        <v>-0.04418792720737261</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.0908453416855062</v>
+        <v>-0.0938772785720887</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.02615739478365342</v>
+        <v>0.02299667363762299</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.02935744206027212</v>
+        <v>0.02717042744686557</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.03556088433489493</v>
+        <v>-0.03162427414141235</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.005487437508483578</v>
+        <v>-0.002717973374229762</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.01780512532680998</v>
+        <v>-0.01911032510468047</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.05379553316038301</v>
+        <v>-0.05199778296200235</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.00284325434898793</v>
+        <v>0.001525693324956209</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.002542277617049699</v>
+        <v>-0.005017572373240508</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.04716847929039857</v>
+        <v>-0.05081163952397232</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-1.140493990132752</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-5.701901180745605</v>
+        <v>-5.701901180745594</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-0.1565344410684011</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.7661262679166868</v>
+        <v>-0.9082640195297629</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.481968325161446</v>
+        <v>-2.416549761335429</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-7.269865598299494</v>
+        <v>-7.217329116385807</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.327768483908963</v>
+        <v>-1.254621759443484</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.377629504595283</v>
+        <v>-1.308852748505146</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-6.663407200206841</v>
+        <v>-6.485091513975188</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.7367553552330947</v>
+        <v>-0.7201549055973903</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.605214661673298</v>
+        <v>-1.514806861663694</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-6.593039914269721</v>
+        <v>-6.439575207001766</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.025850872962128</v>
+        <v>1.662399854970736</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3826714727066119</v>
+        <v>0.1906548961135399</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-4.13594109980695</v>
+        <v>-4.053345805427147</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8868663860459733</v>
+        <v>0.9726000191557234</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8776730612279731</v>
+        <v>0.8287247038575857</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-4.138855233086539</v>
+        <v>-4.045111595206027</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9598823227190326</v>
+        <v>0.9592380030052753</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2170481374656534</v>
+        <v>0.1889547012903843</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-4.52207555623037</v>
+        <v>-4.501337523885978</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.01227878725528441</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.061387812785301</v>
+        <v>-0.06138781278530088</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.00165974297898583</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.008177474782689167</v>
+        <v>-0.009644810679449587</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.02643674903181807</v>
+        <v>-0.02601153091187051</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.07765691619248456</v>
+        <v>-0.07744780024885142</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.01397617736867273</v>
+        <v>-0.01319422412336682</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.01456519636246204</v>
+        <v>-0.01386638483273081</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.07035210519557962</v>
+        <v>-0.06846619515721342</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.00781279125503578</v>
+        <v>-0.007671755628759287</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.01713559910832686</v>
+        <v>-0.01608693158245051</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.07020798100357725</v>
+        <v>-0.06844778698623451</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.02194363745903267</v>
+        <v>0.01801460367980237</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.004160745728736432</v>
+        <v>0.002078804304101385</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.04457842494597147</v>
+        <v>-0.04415304072484494</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.009453992167962185</v>
+        <v>0.01034089743274642</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.00936660671899113</v>
+        <v>0.008834439456304233</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.04435114080617207</v>
+        <v>-0.04289918029606492</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.01029373607441256</v>
+        <v>0.01031042621188109</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.002293121154938937</v>
+        <v>0.002025851351525626</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.0485287895070408</v>
+        <v>-0.04821378784503863</v>
       </c>
     </row>
     <row r="28">
